--- a/well_data.xlsx
+++ b/well_data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhj\Desktop\codes-of-TAN-master\codes-of-TAN-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\codes-of-TAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313A98E-180B-48C0-B8DC-D59EA331680E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E2A4B5-5FE4-4750-8357-D9A3C560D6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11256" yWindow="1956" windowWidth="10536" windowHeight="12084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23400" yWindow="975" windowWidth="19665" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well information" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ST</t>
   </si>
@@ -47,6 +48,14 @@
   </si>
   <si>
     <t>HGI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造埋深</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利构造指数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6933,4 +6942,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6910B41-C753-46F8-993A-68FEF3C80B20}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/well_data.xlsx
+++ b/well_data.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\codes-of-TAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\github\codes-of-TAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E2A4B5-5FE4-4750-8357-D9A3C560D6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D62A6C-BAE7-4F9E-AAB7-549F82AA77DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23400" yWindow="975" windowWidth="19665" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23400" yWindow="978" windowWidth="19668" windowHeight="9738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well information" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ST</t>
   </si>
@@ -48,14 +47,6 @@
   </si>
   <si>
     <t>HGI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>构造埋深</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有利构造指数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,13 +458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -586,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -615,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -644,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -673,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -702,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -731,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -760,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -789,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -818,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -847,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -876,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -905,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -934,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -963,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -992,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1021,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1050,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1079,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1108,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1137,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1166,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1195,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1224,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1253,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1282,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1311,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1340,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1369,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1398,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1427,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1456,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1485,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1514,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1572,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1601,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1630,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1659,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1688,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1717,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1746,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1775,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1804,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1833,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1891,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1920,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1949,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1978,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2007,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2036,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2065,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2094,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2123,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2152,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2181,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2210,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2239,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2268,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2297,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2326,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2355,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2384,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2413,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2442,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2471,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2500,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2529,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2558,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2587,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2616,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2645,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2674,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2703,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2732,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2761,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2819,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2848,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2877,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2906,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2935,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2964,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2993,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3022,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3051,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3080,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3109,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3138,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3167,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3196,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3225,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3254,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3283,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3312,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3341,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3370,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3399,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3428,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3457,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3486,7 +3477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3515,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3544,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3573,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3602,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3631,7 +3622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3660,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3689,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3747,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3776,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3805,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3834,7 +3825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3863,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3892,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3921,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3950,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3979,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4008,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4037,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4066,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4095,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4124,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4153,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4182,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4211,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4240,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4269,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4298,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4327,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4356,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4385,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4414,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4443,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4472,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4501,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4530,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4559,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4588,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4617,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4646,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4675,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4704,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4733,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4762,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4791,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4820,7 +4811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4849,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4878,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4907,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4936,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4965,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4994,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5023,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5052,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5081,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5110,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5139,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5168,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5197,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5226,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5255,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5284,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5313,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5342,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5371,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5400,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5429,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5458,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5487,7 +5478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5516,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5545,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5574,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5603,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5632,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5661,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5690,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5719,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5748,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5777,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5806,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5835,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5864,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5893,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5922,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5951,7 +5942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5980,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6009,7 +6000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6038,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6067,7 +6058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6096,7 +6087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6125,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6154,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6183,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6212,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6241,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6270,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6299,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6328,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6357,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6386,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6415,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6444,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6473,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6502,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6531,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6560,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6589,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6618,7 +6609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6647,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6676,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6705,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6734,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6763,7 +6754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6792,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6821,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6850,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6879,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6908,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6942,36 +6933,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6910B41-C753-46F8-993A-68FEF3C80B20}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>